--- a/Notes/eCommerceDatabase.xlsx
+++ b/Notes/eCommerceDatabase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuced\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuced\Desktop\e-Commerce\e-Commerce Back-End\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFFFCC0-0E56-42C1-8433-1477F809DFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223A0AF3-79B2-4792-924E-F2361EABBF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{B099DB66-700E-46C4-AFEC-10A86677196D}"/>
   </bookViews>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B851C4-08D6-4C48-8CB9-26DA5F5364D7}">
   <dimension ref="A1:U138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="E49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.84375" defaultRowHeight="23.6" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Notes/eCommerceDatabase.xlsx
+++ b/Notes/eCommerceDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuced\Desktop\e-Commerce\e-Commerce Back-End\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223A0AF3-79B2-4792-924E-F2361EABBF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89E741F-CA50-4CE2-A16D-20E7B6340D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{B099DB66-700E-46C4-AFEC-10A86677196D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="188">
   <si>
     <t>Product</t>
   </si>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>isAvailable</t>
+  </si>
+  <si>
+    <t>IsValidated</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B851C4-08D6-4C48-8CB9-26DA5F5364D7}">
   <dimension ref="A1:U138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="G79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.84375" defaultRowHeight="23.6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3867,7 +3870,9 @@
       <c r="P84" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q84" s="1"/>
+      <c r="Q84" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
@@ -3916,7 +3921,9 @@
       <c r="P85" s="2">
         <v>1</v>
       </c>
-      <c r="Q85" s="1"/>
+      <c r="Q85" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
@@ -3965,7 +3972,9 @@
       <c r="P86" s="2">
         <v>1</v>
       </c>
-      <c r="Q86" s="1"/>
+      <c r="Q86" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
@@ -4014,7 +4023,9 @@
       <c r="P87" s="2">
         <v>1</v>
       </c>
-      <c r="Q87" s="1"/>
+      <c r="Q87" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
@@ -4063,7 +4074,9 @@
       <c r="P88" s="2">
         <v>1</v>
       </c>
-      <c r="Q88" s="1"/>
+      <c r="Q88" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
@@ -4112,7 +4125,9 @@
       <c r="P89" s="2">
         <v>1</v>
       </c>
-      <c r="Q89" s="1"/>
+      <c r="Q89" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>

--- a/Notes/eCommerceDatabase.xlsx
+++ b/Notes/eCommerceDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuced\Desktop\e-Commerce\e-Commerce Back-End\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89E741F-CA50-4CE2-A16D-20E7B6340D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFB7ADD-FE92-44A4-BB3D-2FC849495C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{B099DB66-700E-46C4-AFEC-10A86677196D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="194">
   <si>
     <t>Product</t>
   </si>
@@ -597,13 +597,31 @@
   </si>
   <si>
     <t>IsValidated</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Detail1</t>
+  </si>
+  <si>
+    <t>Detail2</t>
+  </si>
+  <si>
+    <t>Detail3</t>
+  </si>
+  <si>
+    <t>Detail4</t>
+  </si>
+  <si>
+    <t>Detail5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +634,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -1077,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B851C4-08D6-4C48-8CB9-26DA5F5364D7}">
   <dimension ref="A1:U138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M96" sqref="M96"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.84375" defaultRowHeight="23.6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2118,7 +2143,9 @@
       <c r="J30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="1"/>
+      <c r="K30" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2155,7 +2182,9 @@
       <c r="J31" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K31" s="1"/>
+      <c r="K31" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2192,7 +2221,9 @@
       <c r="J32" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K32" s="1"/>
+      <c r="K32" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2229,7 +2260,9 @@
       <c r="J33" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K33" s="1"/>
+      <c r="K33" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2266,7 +2299,9 @@
       <c r="J34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K34" s="1"/>
+      <c r="K34" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2303,7 +2338,9 @@
       <c r="J35" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -5705,6 +5742,7 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K116" r:id="rId1" xr:uid="{AC492454-B6D5-49AC-8F1B-7AA47FA74DC1}"/>
     <hyperlink ref="K115" r:id="rId2" xr:uid="{DC598108-2C93-4F4C-BDFC-DA49E4B1E530}"/>
